--- a/TIMER 계산.xlsx
+++ b/TIMER 계산.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>TIMER 클럭</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주기 주파수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -230,11 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +554,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,7 +674,11 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="D7">
+        <f>((B2)/(B3))/B4</f>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -691,15 +699,15 @@
       <c r="G8">
         <v>1250</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>63</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -718,7 +726,7 @@
       <c r="G9">
         <v>800</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>40</v>
       </c>
       <c r="J9" t="s">
@@ -735,13 +743,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <f>B7/(B4)</f>
+        <v>0.79365079365079361</v>
+      </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10">
         <v>400</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>23</v>
       </c>
       <c r="J10" t="s">
@@ -764,7 +779,7 @@
       <c r="G11">
         <v>50000</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>G11/G8</f>
         <v>40</v>
       </c>
@@ -851,7 +866,7 @@
         <v>0.32</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G18" si="0">$B$4*F17</f>
+        <f t="shared" ref="G17" si="0">$B$4*F17</f>
         <v>20.16</v>
       </c>
     </row>
@@ -861,5 +876,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>